--- a/analysis/metadata/P12_4/P12_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_4/P12_4_minimal_metadata.xlsx
@@ -457,7 +457,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>se_s_1410</t>
+          <t>1410</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20/04/2022 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -478,6 +483,21 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Oceanic</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Atacama</t>
         </is>
       </c>
     </row>
@@ -499,7 +519,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>se_s_1410</t>
+          <t>1410</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20/04/2022 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -520,6 +545,21 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Oceanic</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Atacama</t>
         </is>
       </c>
     </row>
@@ -541,7 +581,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>se_s_1410</t>
+          <t>1410</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>20/04/2022 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -562,6 +607,21 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Oceanic</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Atacama</t>
         </is>
       </c>
     </row>
@@ -583,7 +643,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>se_s_1420</t>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20/04/2022 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -604,6 +669,21 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Oceanic</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Kamchatska</t>
         </is>
       </c>
     </row>
@@ -625,7 +705,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>se_s_1420</t>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>20/04/2022 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -646,6 +731,21 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Saltwater</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Oceanic</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Kamchatska</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P12_4/P12_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_4/P12_4_minimal_metadata.xlsx
@@ -462,7 +462,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>20/04/2022 00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20/04/2022 00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>20/04/2022 00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20/04/2022 00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>20/04/2022 00:00</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/analysis/metadata/P12_4/P12_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P12_4/P12_4_minimal_metadata.xlsx
@@ -450,6 +450,12 @@
           <t>sediment</t>
         </is>
       </c>
+      <c r="C2">
+        <v>-20.319</v>
+      </c>
+      <c r="D2">
+        <v>-71.291</v>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>marine</t>
@@ -460,6 +466,11 @@
           <t>1410</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Atacama Trench Site 10</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>2022-04-20</t>
@@ -483,6 +494,11 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2018-03-26</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -512,6 +528,12 @@
           <t>sediment</t>
         </is>
       </c>
+      <c r="C3">
+        <v>-20.319</v>
+      </c>
+      <c r="D3">
+        <v>-71.291</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>marine</t>
@@ -522,6 +544,11 @@
           <t>1410</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Atacama Trench Site 10</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>2022-04-20</t>
@@ -545,6 +572,11 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2018-03-26</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -574,6 +606,12 @@
           <t>sediment</t>
         </is>
       </c>
+      <c r="C4">
+        <v>-22.937</v>
+      </c>
+      <c r="D4">
+        <v>-71.61799999999999</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>marine</t>
@@ -584,6 +622,11 @@
           <t>1410</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Atacama Trench Site 7</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>2022-04-20</t>
@@ -607,6 +650,11 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2018-03-20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -636,6 +684,12 @@
           <t>sediment</t>
         </is>
       </c>
+      <c r="C5">
+        <v>44.20666666666666</v>
+      </c>
+      <c r="D5">
+        <v>150.6005333333333</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>marine</t>
@@ -646,6 +700,11 @@
           <t>1420</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Kamchatska Trench Site 101</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>2022-04-20</t>
@@ -669,6 +728,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2016-09-20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -698,6 +762,12 @@
           <t>sediment</t>
         </is>
       </c>
+      <c r="C6">
+        <v>44.20666666666666</v>
+      </c>
+      <c r="D6">
+        <v>150.6005333333333</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>marine</t>
@@ -708,6 +778,11 @@
           <t>1420</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Kamchatska Trench Site 101</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>2022-04-20</t>
@@ -731,6 +806,11 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Subterranean</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2016-09-20</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
